--- a/Robot Procesamiento TERPEL/Config/Macros/macro.xlsx
+++ b/Robot Procesamiento TERPEL/Config/Macros/macro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -341,7 +341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Robot Procesamiento TERPEL/Config/Macros/macro.xlsx
+++ b/Robot Procesamiento TERPEL/Config/Macros/macro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -341,7 +341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
